--- a/book_themes_alignment_data/Karim_assignments_v1_v2.xlsx
+++ b/book_themes_alignment_data/Karim_assignments_v1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dre\Documents\projet biblio scolaire\Books-Python\book_themes_alignment_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B23FC5-5B3C-407B-8DEE-E2D1DD381674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5618EC0-3B41-402C-A265-2E556AC8C58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{4D0CF3CE-AABB-4B46-BD17-50E94D4E8C5C}"/>
+    <workbookView xWindow="1215" yWindow="1230" windowWidth="21600" windowHeight="11295" xr2:uid="{4D0CF3CE-AABB-4B46-BD17-50E94D4E8C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
   <si>
     <t>UUID</t>
   </si>
@@ -648,6 +648,15 @@
   </si>
   <si>
     <t>WBJ</t>
+  </si>
+  <si>
+    <t>champignon</t>
+  </si>
+  <si>
+    <t>WNP</t>
+  </si>
+  <si>
+    <t>4de94b55e-538e-4225-93f3-303390e81ed8</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46669B47-E5BD-4C16-B097-B2A420365AB3}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:C67"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,6 +1817,17 @@
         <v>203</v>
       </c>
     </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
